--- a/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
+++ b/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
@@ -137,13 +137,13 @@
     <t>I_б</t>
   </si>
   <si>
-    <t>X_в</t>
-  </si>
-  <si>
-    <t>X_c</t>
-  </si>
-  <si>
-    <t>X_н</t>
+    <t>U_в</t>
+  </si>
+  <si>
+    <t>U_с</t>
+  </si>
+  <si>
+    <t>U_н</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A2:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1041,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>87.23090641799071</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>66.165641662977521</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0.1221</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>8.7214285714285716E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>4.0404040404040407</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1144,8 +1144,17 @@
         <f>SQRT(SUM(K3:K15)/120)*365</f>
         <v>10800.413694931629</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>45</v>
+      </c>
+      <c r="H28">
+        <v>28</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>Iб</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1168,33 +1177,21 @@
       <c r="D30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="3">
-        <f>(14/$J$30*$K$30)*($H$30^2/$I$30)</f>
-        <v>118.49600000000001</v>
-      </c>
-      <c r="H30">
-        <v>230</v>
-      </c>
-      <c r="I30">
-        <v>125</v>
-      </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f>(0.5*(G28+I28-H28)/100)*8</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31">
-        <f>1000/1100</f>
-        <v>0.90909090909090906</v>
+        <f>1000/2200</f>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C31" s="3">
         <v>10.5</v>
@@ -1203,15 +1200,19 @@
         <f>1000/(SQRT(3)*C31)</f>
         <v>54.985739922821502</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="3">
-        <f>(0/$J$30*$K$30)*($H$30^2/$I$30)</f>
+      <c r="G31">
+        <f>(0.5*(I28+H28-G28)/100)*8</f>
+        <v>-0.24</v>
+      </c>
+      <c r="H31">
+        <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="3">
         <v>115</v>
       </c>
@@ -1219,12 +1220,12 @@
         <f>1000/(SQRT(3)*C32)</f>
         <v>5.0204371233880503</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="3">
-        <f>(62/$J$30*$K$30)*($H$30^2/$I$30)</f>
-        <v>524.76800000000003</v>
+      <c r="G32">
+        <f>(0.5*(G28+H28-I28)/100)*8</f>
+        <v>2.48</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">

--- a/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
+++ b/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>COS</t>
   </si>
@@ -144,6 +144,48 @@
   </si>
   <si>
     <t>U_н</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C1=С2</t>
+  </si>
+  <si>
+    <t>C3-4</t>
+  </si>
+  <si>
+    <t>X14-15</t>
+  </si>
+  <si>
+    <t>x_рез</t>
+  </si>
+  <si>
+    <t>X16-17</t>
+  </si>
+  <si>
+    <t>I_П, 0С1</t>
+  </si>
+  <si>
+    <t>I_П, 0С2</t>
+  </si>
+  <si>
+    <t>I_П, 0СК1</t>
+  </si>
+  <si>
+    <t>I_П, 0СК2</t>
+  </si>
+  <si>
+    <t>СУММА</t>
+  </si>
+  <si>
+    <t>Iном</t>
+  </si>
+  <si>
+    <t>Відношення початкового значення періо</t>
   </si>
 </sst>
 </file>
@@ -483,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K34"/>
+  <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1270,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="3">
         <v>230</v>
       </c>
@@ -1237,9 +1279,129 @@
         <v>2.5102185616940251</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0.41</v>
+      </c>
+      <c r="D38">
+        <v>0.9</v>
+      </c>
+      <c r="E38">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f>C38/D38</f>
+        <v>0.45555555555555549</v>
+      </c>
+      <c r="D41">
+        <f>C38/E38</f>
+        <v>4.4181034482758619E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f>G41/C41</f>
+        <v>2.1292682926829269</v>
+      </c>
+      <c r="D45">
+        <f>G41/D41</f>
+        <v>21.955121951219514</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f>(1/0.21)*2.62</f>
+        <v>12.476190476190476</v>
+      </c>
+      <c r="D48">
+        <f>(1/2.13)*2.62</f>
+        <v>1.2300469483568075</v>
+      </c>
+      <c r="F48">
+        <f>1.118/21.96</f>
+        <v>5.0910746812386158E-2</v>
+      </c>
+      <c r="G48">
+        <f>F48</f>
+        <v>5.0910746812386158E-2</v>
+      </c>
+      <c r="H48">
+        <f>C48+D48+D48+F48+G48</f>
+        <v>15.038105866528864</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f>32/(SQRT(3)*220)</f>
+        <v>8.3978220973036477E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f>G48/0.084</f>
+        <v>0.60608031919507332</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
+++ b/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>COS</t>
   </si>
@@ -186,6 +186,57 @@
   </si>
   <si>
     <t>Відношення початкового значення періо</t>
+  </si>
+  <si>
+    <t>Точки КЗ</t>
+  </si>
+  <si>
+    <t>Джерела струмі КЗ</t>
+  </si>
+  <si>
+    <t>Точки КЗ, кА</t>
+  </si>
+  <si>
+    <t>Тип вимикача</t>
+  </si>
+  <si>
+    <t>К1(РП 220кВ)</t>
+  </si>
+  <si>
+    <t>Система 1</t>
+  </si>
+  <si>
+    <t>Система 2</t>
+  </si>
+  <si>
+    <t>Система 3</t>
+  </si>
+  <si>
+    <t>СК1</t>
+  </si>
+  <si>
+    <t>СК2</t>
+  </si>
+  <si>
+    <t>Разом</t>
+  </si>
+  <si>
+    <t>0,05</t>
+  </si>
+  <si>
+    <t>0,14</t>
+  </si>
+  <si>
+    <t>0,07</t>
+  </si>
+  <si>
+    <t>ВВБ-220-31,5 - 2000</t>
+  </si>
+  <si>
+    <t>К2(РП 220кВ)</t>
+  </si>
+  <si>
+    <t>x_ек</t>
   </si>
 </sst>
 </file>
@@ -195,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,16 +255,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -236,15 +300,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -260,6 +445,470 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,11 +1173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,9 +1185,16 @@
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
+    <col min="17" max="18" width="11.140625" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -561,7 +1217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>48</f>
         <v>48</v>
@@ -603,8 +1259,25 @@
         <f>(H3^2)*$J$3</f>
         <v>4719.0488272382081</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>12</f>
         <v>12</v>
@@ -643,11 +1316,20 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K15" si="3">(H4^2)*$J$3</f>
+        <f>(H4^2)*$J$3</f>
         <v>1862.2547878524683</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>24</f>
         <v>24</v>
@@ -665,7 +1347,7 @@
         <v>0.32868410517886321</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E15" si="4">A5*D5</f>
+        <f t="shared" ref="E5:E15" si="3">A5*D5</f>
         <v>7.8884185242927174</v>
       </c>
       <c r="F5">
@@ -683,11 +1365,38 @@
         <v>17</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K5:K15" si="4">(H5^2)*$J$3</f>
         <v>2314.7367225193411</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="5">
+        <v>12.48</v>
+      </c>
+      <c r="P5" s="5">
+        <v>12.49</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="R5" s="5">
+        <v>32.1</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60</v>
       </c>
@@ -704,7 +1413,7 @@
         <v>0.76184523576990759</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45.710714146194455</v>
       </c>
       <c r="F6">
@@ -722,11 +1431,30 @@
         <v>18</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f>(H6^2)*$J$3</f>
         <v>7575.9673647973123</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="14"/>
+      <c r="N6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="R6" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>72</v>
       </c>
@@ -743,7 +1471,7 @@
         <v>0.7022559779407781</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50.562430411736024</v>
       </c>
       <c r="F7">
@@ -761,11 +1489,30 @@
         <v>19</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11057.127645581084</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="14"/>
+      <c r="N7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="R7" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="S7" s="15"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+    </row>
+    <row r="8" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>48</v>
       </c>
@@ -782,7 +1529,7 @@
         <v>0.82190563682401441</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39.45147056755269</v>
       </c>
       <c r="F8">
@@ -800,11 +1547,32 @@
         <v>20</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4719.0488272382081</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="14"/>
+      <c r="N8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="P8" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+    </row>
+    <row r="9" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>120</v>
       </c>
@@ -821,7 +1589,7 @@
         <v>0.45561346025555793</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.673615230666954</v>
       </c>
       <c r="F9">
@@ -839,11 +1607,30 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f>(H9^2)*$J$3</f>
         <v>29828.185655256664</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="14"/>
+      <c r="N9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="P9" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+    </row>
+    <row r="10" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>96</v>
       </c>
@@ -860,7 +1647,7 @@
         <v>0.5822613531152967</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55.897089899068483</v>
       </c>
       <c r="F10">
@@ -881,8 +1668,31 @@
         <f>(H10^2)*$J$4</f>
         <v>9787.0709056441628</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="15"/>
+      <c r="N10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="6">
+        <f>SUM(O5:O9)</f>
+        <v>15.040000000000003</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" ref="P10:R10" si="7">SUM(P5:P9)</f>
+        <v>15.040000000000001</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="7"/>
+        <v>5.2439999999999998</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="7"/>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>84</v>
       </c>
@@ -899,7 +1709,7 @@
         <v>0.64261081053744551</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53.979308085145419</v>
       </c>
       <c r="F11">
@@ -920,8 +1730,35 @@
         <f>(H11^2)*$J$4</f>
         <v>7539.0899839017375</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="5">
+        <v>12.48</v>
+      </c>
+      <c r="P11" s="5">
+        <v>12.49</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="R11" s="5">
+        <v>32.1</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>72</v>
       </c>
@@ -938,7 +1775,7 @@
         <v>0.7022559779407781</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50.562430411736024</v>
       </c>
       <c r="F12">
@@ -956,11 +1793,30 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11057.127645581084</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="14"/>
+      <c r="N12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="R12" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+    </row>
+    <row r="13" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>60</v>
       </c>
@@ -977,7 +1833,7 @@
         <v>0.76184523576990759</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45.710714146194455</v>
       </c>
       <c r="F13">
@@ -995,11 +1851,30 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7575.9673647973123</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="14"/>
+      <c r="N13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="R13" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="S13" s="15"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>48</v>
       </c>
@@ -1016,7 +1891,7 @@
         <v>0.82190563682401441</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39.45147056755269</v>
       </c>
       <c r="F14">
@@ -1034,11 +1909,32 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4719.0488272382081</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="14"/>
+      <c r="N14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="P14" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+    </row>
+    <row r="15" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>24</v>
       </c>
@@ -1055,7 +1951,7 @@
         <v>0.32868410517886321</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.8884185242927174</v>
       </c>
       <c r="F15">
@@ -1073,15 +1969,57 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2314.7367225193411</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="14"/>
+      <c r="N15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="P15" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+    </row>
+    <row r="16" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>SUM(A3:A15)</f>
         <v>768</v>
       </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="6">
+        <f>SUM(O11:O15)</f>
+        <v>15.040000000000003</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" ref="P16" si="8">SUM(P11:P15)</f>
+        <v>15.040000000000001</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" ref="Q16" si="9">SUM(Q11:Q15)</f>
+        <v>5.2439999999999998</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" ref="R16" si="10">SUM(R11:R15)</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1109,9 +2047,9 @@
         <f>B20/125</f>
         <v>0.52932513330382014</v>
       </c>
-      <c r="G21">
-        <f>SQRT((M4^2+M5^2+M6^2+M7^2+M8^2+M9^2+M10^2+M11^2+M13^2+M12^2+M14^2+M15^2+M16^2)*2)/24</f>
-        <v>0</v>
+      <c r="G21" t="e">
+        <f>SQRT((M4^2+M5^2+M6^2+M7^2+M8^2+M9^2+M10^2+#REF!^2+M13^2+#REF!^2+M14^2+#REF!^2+#REF!^2)*2)/24</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1381,29 +2319,286 @@
         <v>15.038105866528864</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>32/(SQRT(3)*220)</f>
         <v>8.3978220973036477E-2</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>G48/0.084</f>
         <v>0.60608031919507332</v>
       </c>
     </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56">
+        <f>1/((1/0.9)+(1/0.21)+(1/9.28)+(1/9.28))</f>
+        <v>0.16424317339026859</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:U9"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T15"/>
+    <mergeCell ref="U11:U15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1032" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1032" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1031" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1031" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1030" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1030" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1029" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1029" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1028" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1028" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1027" r:id="rId14">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1027" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1026" r:id="rId16">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1026" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1025" r:id="rId18">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1025" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1033" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1033" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
--- a/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
+++ b/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>COS</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>x_ек</t>
+  </si>
+  <si>
+    <t>ус</t>
   </si>
 </sst>
 </file>
@@ -406,6 +409,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,12 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U56"/>
+  <dimension ref="A2:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,14 +1268,14 @@
       <c r="N3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
       <c r="U3" s="7" t="s">
         <v>57</v>
       </c>
@@ -1319,15 +1322,15 @@
         <f>(H4^2)*$J$3</f>
         <v>1862.2547878524683</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="8"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1434,7 +1437,7 @@
         <f>(H6^2)*$J$3</f>
         <v>7575.9673647973123</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="5" t="s">
         <v>60</v>
       </c>
@@ -1450,9 +1453,9 @@
       <c r="R6" s="5">
         <v>3.16</v>
       </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1492,7 +1495,7 @@
         <f t="shared" si="4"/>
         <v>11057.127645581084</v>
       </c>
-      <c r="M7" s="14"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="5" t="s">
         <v>61</v>
       </c>
@@ -1508,9 +1511,9 @@
       <c r="R7" s="5">
         <v>3.16</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1550,7 +1553,7 @@
         <f t="shared" si="4"/>
         <v>4719.0488272382081</v>
       </c>
-      <c r="M8" s="14"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="5" t="s">
         <v>62</v>
       </c>
@@ -1569,8 +1572,8 @@
       <c r="S8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1610,7 +1613,7 @@
         <f>(H9^2)*$J$3</f>
         <v>29828.185655256664</v>
       </c>
-      <c r="M9" s="14"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="5" t="s">
         <v>63</v>
       </c>
@@ -1626,9 +1629,9 @@
       <c r="R9" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1668,7 +1671,7 @@
         <f>(H10^2)*$J$4</f>
         <v>9787.0709056441628</v>
       </c>
-      <c r="M10" s="15"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="6" t="s">
         <v>64</v>
       </c>
@@ -1796,7 +1799,7 @@
         <f t="shared" si="4"/>
         <v>11057.127645581084</v>
       </c>
-      <c r="M12" s="14"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="5" t="s">
         <v>60</v>
       </c>
@@ -1812,9 +1815,9 @@
       <c r="R12" s="5">
         <v>3.16</v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1854,7 +1857,7 @@
         <f t="shared" si="4"/>
         <v>7575.9673647973123</v>
       </c>
-      <c r="M13" s="14"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="5" t="s">
         <v>61</v>
       </c>
@@ -1870,9 +1873,9 @@
       <c r="R13" s="5">
         <v>3.16</v>
       </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1912,7 +1915,7 @@
         <f t="shared" si="4"/>
         <v>4719.0488272382081</v>
       </c>
-      <c r="M14" s="14"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="5" t="s">
         <v>62</v>
       </c>
@@ -1931,8 +1934,8 @@
       <c r="S14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1972,7 +1975,7 @@
         <f t="shared" si="4"/>
         <v>2314.7367225193411</v>
       </c>
-      <c r="M15" s="14"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="5" t="s">
         <v>63</v>
       </c>
@@ -1988,16 +1991,16 @@
       <c r="R15" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>SUM(A3:A15)</f>
         <v>768</v>
       </c>
-      <c r="M16" s="15"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="6" t="s">
         <v>64</v>
       </c>
@@ -2319,29 +2322,29 @@
         <v>15.038105866528864</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>32/(SQRT(3)*220)</f>
         <v>8.3978220973036477E-2</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>G48/0.084</f>
         <v>0.60608031919507332</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>70</v>
       </c>
@@ -2350,24 +2353,161 @@
         <v>0.16424317339026859</v>
       </c>
     </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>3.56</v>
+      </c>
+      <c r="D59">
+        <v>5.78</v>
+      </c>
+      <c r="E59">
+        <v>3.66</v>
+      </c>
+      <c r="F59">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G59">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f>SQRT(2)*C59*2.72^(-0.09/0.05)</f>
+        <v>0.83126782019746892</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61:G61" si="11">SQRT(2)*D59*2.72^(-0.09/0.05)</f>
+        <v>1.3496426968374635</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="11"/>
+        <v>0.85461803986593721</v>
+      </c>
+      <c r="F61">
+        <f>SQRT(2)*F59*2.72^(-0.09/0.14)</f>
+        <v>0.42366650438571996</v>
+      </c>
+      <c r="G61">
+        <f>SQRT(2)*G59*2.72^(-0.09/0.14)</f>
+        <v>3.6420453885789961E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63">
+        <f>SQRT(2)*C59*(1+2.72^(0.01/0.05))</f>
+        <v>11.18465212299717</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63:G63" si="12">SQRT(2)*D59*(1+2.72^(0.01/0.05))</f>
+        <v>18.159350918798776</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="12"/>
+        <v>11.498827744429676</v>
+      </c>
+      <c r="F63">
+        <f>SQRT(2)*F59*(1+2.72^(0.01/0.14))</f>
+        <v>1.6719274641015331</v>
+      </c>
+      <c r="G63">
+        <f>SQRT(2)*G59*(1+2.72^(0.01/0.14))</f>
+        <v>0.14372709779118442</v>
+      </c>
+      <c r="H63">
+        <f>SUM(C63:G63)</f>
+        <v>42.65848534811834</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D66">
+        <v>15.95</v>
+      </c>
+      <c r="E66">
+        <v>2.27</v>
+      </c>
+      <c r="F66">
+        <v>7.66</v>
+      </c>
+      <c r="G66">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f>SQRT(2)*C66*2.72^(-0.013/0.05)</f>
+        <v>10.684474292825426</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:G68" si="13">SQRT(2)*D66*2.72^(-0.013/0.05)</f>
+        <v>17.389527037812812</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="13"/>
+        <v>2.4748731270116036</v>
+      </c>
+      <c r="F68">
+        <f>SQRT(2)*F66*2.72^(-0.013/0.246)</f>
+        <v>10.274926977335639</v>
+      </c>
+      <c r="G68">
+        <f>SQRT(2)*G66*2.72^(-0.013/0.246)</f>
+        <v>0.20120614185383101</v>
+      </c>
+      <c r="H68">
+        <f>SUM(C68:G68)</f>
+        <v>41.025007576839315</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f>SQRT(2)*C66*(1+2.72^(0.01/0.05))</f>
+        <v>30.78921090038547</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70:G70" si="14">SQRT(2)*D66*(1+2.72^(0.01/0.05))</f>
+        <v>50.111011618484511</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="14"/>
+        <v>7.1317866065178581</v>
+      </c>
+      <c r="F70">
+        <f>SQRT(2)*F66*(1+2.72^(0.01/0.14))</f>
+        <v>22.468358552662711</v>
+      </c>
+      <c r="G70">
+        <f>SQRT(2)*G66*(1+2.72^(0.01/0.14))</f>
+        <v>0.43998091160566655</v>
+      </c>
+      <c r="H70">
+        <f>SUM(C70:G70)</f>
+        <v>110.94034858965622</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M5:M10"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:U9"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T15"/>
-    <mergeCell ref="U11:U15"/>
-    <mergeCell ref="S14:S15"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T15"/>
+    <mergeCell ref="U11:U15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
+++ b/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
@@ -1177,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U70"/>
+  <dimension ref="A2:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,7 +2376,7 @@
         <v>0.83126782019746892</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61:G61" si="11">SQRT(2)*D59*2.72^(-0.09/0.05)</f>
+        <f t="shared" ref="D61:E61" si="11">SQRT(2)*D59*2.72^(-0.09/0.05)</f>
         <v>1.3496426968374635</v>
       </c>
       <c r="E61">
@@ -2401,7 +2401,7 @@
         <v>11.18465212299717</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:G63" si="12">SQRT(2)*D59*(1+2.72^(0.01/0.05))</f>
+        <f t="shared" ref="D63:E63" si="12">SQRT(2)*D59*(1+2.72^(0.01/0.05))</f>
         <v>18.159350918798776</v>
       </c>
       <c r="E63">
@@ -2444,7 +2444,7 @@
         <v>10.684474292825426</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:G68" si="13">SQRT(2)*D66*2.72^(-0.013/0.05)</f>
+        <f t="shared" ref="D68:E68" si="13">SQRT(2)*D66*2.72^(-0.013/0.05)</f>
         <v>17.389527037812812</v>
       </c>
       <c r="E68">
@@ -2470,7 +2470,7 @@
         <v>30.78921090038547</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70:G70" si="14">SQRT(2)*D66*(1+2.72^(0.01/0.05))</f>
+        <f t="shared" ref="D70:E70" si="14">SQRT(2)*D66*(1+2.72^(0.01/0.05))</f>
         <v>50.111011618484511</v>
       </c>
       <c r="E70">
@@ -2488,6 +2488,75 @@
       <c r="H70">
         <f>SUM(C70:G70)</f>
         <v>110.94034858965622</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>10.68</v>
+      </c>
+      <c r="D72">
+        <v>17.39</v>
+      </c>
+      <c r="E72">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F72">
+        <v>10.27</v>
+      </c>
+      <c r="G72">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f>SQRT(2)*C72*2.72^(-0.013/0.05)</f>
+        <v>11.643896474221995</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ref="D74:E74" si="15">SQRT(2)*D72*2.72^(-0.013/0.05)</f>
+        <v>18.959490607370832</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="15"/>
+        <v>2.6929236227835514</v>
+      </c>
+      <c r="F74">
+        <f>SQRT(2)*F72*2.72^(-0.013/0.246)</f>
+        <v>13.775913845592298</v>
+      </c>
+      <c r="G74">
+        <f>SQRT(2)*G72*2.72^(-0.013/0.246)</f>
+        <v>0.26827485580510807</v>
+      </c>
+      <c r="H74">
+        <f>SUM(C74:G74)</f>
+        <v>47.340499405773791</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f>SQRT(2)*C72*(1+2.72^(0.01/0.05))</f>
+        <v>33.553956368991514</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ref="D76" si="16">SQRT(2)*D72*(1+2.72^(0.01/0.05))</f>
+        <v>54.635140567112586</v>
+      </c>
+      <c r="E76">
+        <f>SQRT(2)*E72*(1+2.72^(0.01/0.05))</f>
+        <v>7.7601378493828683</v>
+      </c>
+      <c r="F76">
+        <f>SQRT(2)*F72*(1+2.72^(0.01/0.246))</f>
+        <v>29.650904916766144</v>
+      </c>
+      <c r="G76">
+        <f>SQRT(2)*G72*(1+2.72^(0.01/0.246))</f>
+        <v>0.57742755436740312</v>
+      </c>
+      <c r="H76">
+        <f>SUM(C76:G76)</f>
+        <v>126.17756725662053</v>
       </c>
     </row>
   </sheetData>

--- a/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
+++ b/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
@@ -409,12 +409,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -432,6 +426,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U76"/>
+  <dimension ref="A2:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,14 +1268,14 @@
       <c r="N3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
       <c r="U3" s="7" t="s">
         <v>57</v>
       </c>
@@ -1322,15 +1322,15 @@
         <f>(H4^2)*$J$3</f>
         <v>1862.2547878524683</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="10"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1437,7 +1437,7 @@
         <f>(H6^2)*$J$3</f>
         <v>7575.9673647973123</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="5" t="s">
         <v>60</v>
       </c>
@@ -1453,9 +1453,9 @@
       <c r="R6" s="5">
         <v>3.16</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1495,7 +1495,7 @@
         <f t="shared" si="4"/>
         <v>11057.127645581084</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="5" t="s">
         <v>61</v>
       </c>
@@ -1511,9 +1511,9 @@
       <c r="R7" s="5">
         <v>3.16</v>
       </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1553,7 +1553,7 @@
         <f t="shared" si="4"/>
         <v>4719.0488272382081</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="5" t="s">
         <v>62</v>
       </c>
@@ -1572,8 +1572,8 @@
       <c r="S8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1613,7 +1613,7 @@
         <f>(H9^2)*$J$3</f>
         <v>29828.185655256664</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="5" t="s">
         <v>63</v>
       </c>
@@ -1629,9 +1629,9 @@
       <c r="R9" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1671,7 +1671,7 @@
         <f>(H10^2)*$J$4</f>
         <v>9787.0709056441628</v>
       </c>
-      <c r="M10" s="9"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="6" t="s">
         <v>64</v>
       </c>
@@ -1799,7 +1799,7 @@
         <f t="shared" si="4"/>
         <v>11057.127645581084</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="14"/>
       <c r="N12" s="5" t="s">
         <v>60</v>
       </c>
@@ -1815,9 +1815,9 @@
       <c r="R12" s="5">
         <v>3.16</v>
       </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
     </row>
     <row r="13" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1857,7 +1857,7 @@
         <f t="shared" si="4"/>
         <v>7575.9673647973123</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="14"/>
       <c r="N13" s="5" t="s">
         <v>61</v>
       </c>
@@ -1873,9 +1873,9 @@
       <c r="R13" s="5">
         <v>3.16</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1915,7 +1915,7 @@
         <f t="shared" si="4"/>
         <v>4719.0488272382081</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="14"/>
       <c r="N14" s="5" t="s">
         <v>62</v>
       </c>
@@ -1934,8 +1934,8 @@
       <c r="S14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
     </row>
     <row r="15" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1975,7 +1975,7 @@
         <f t="shared" si="4"/>
         <v>2314.7367225193411</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="14"/>
       <c r="N15" s="5" t="s">
         <v>63</v>
       </c>
@@ -1991,16 +1991,16 @@
       <c r="R15" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>SUM(A3:A15)</f>
         <v>768</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="6" t="s">
         <v>64</v>
       </c>
@@ -2423,160 +2423,300 @@
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66">
-        <v>9.8000000000000007</v>
+        <v>13.11</v>
       </c>
       <c r="D66">
-        <v>15.95</v>
+        <v>1.65</v>
       </c>
       <c r="E66">
-        <v>2.27</v>
+        <v>1.65</v>
       </c>
       <c r="F66">
-        <v>7.66</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G66">
-        <v>0.15</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68">
-        <f>SQRT(2)*C66*2.72^(-0.013/0.05)</f>
-        <v>10.684474292825426</v>
+        <f>SQRT(2)*C66*2.72^(-0.07/0.05)</f>
+        <v>4.567948762268391</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:E68" si="13">SQRT(2)*D66*2.72^(-0.013/0.05)</f>
-        <v>17.389527037812812</v>
+        <f t="shared" ref="D68:F68" si="13">SQRT(2)*D66*2.72^(-0.07/0.05)</f>
+        <v>0.57491345978206299</v>
       </c>
       <c r="E68">
         <f t="shared" si="13"/>
-        <v>2.4748731270116036</v>
+        <v>0.57491345978206299</v>
       </c>
       <c r="F68">
-        <f>SQRT(2)*F66*2.72^(-0.013/0.246)</f>
-        <v>10.274926977335639</v>
+        <f t="shared" si="13"/>
+        <v>3.310107798745212E-2</v>
       </c>
       <c r="G68">
-        <f>SQRT(2)*G66*2.72^(-0.013/0.246)</f>
-        <v>0.20120614185383101</v>
+        <f>SQRT(2)*G66*2.72^(-0.07/0.05)</f>
+        <v>3.310107798745212E-2</v>
       </c>
       <c r="H68">
         <f>SUM(C68:G68)</f>
-        <v>41.025007576839315</v>
+        <v>5.7839778378074209</v>
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70">
         <f>SQRT(2)*C66*(1+2.72^(0.01/0.05))</f>
-        <v>30.78921090038547</v>
+        <v>41.188423969801377</v>
       </c>
       <c r="D70">
         <f t="shared" ref="D70:E70" si="14">SQRT(2)*D66*(1+2.72^(0.01/0.05))</f>
-        <v>50.111011618484511</v>
+        <v>5.1838977536363284</v>
       </c>
       <c r="E70">
         <f t="shared" si="14"/>
-        <v>7.1317866065178581</v>
+        <v>5.1838977536363284</v>
       </c>
       <c r="F70">
         <f>SQRT(2)*F66*(1+2.72^(0.01/0.14))</f>
-        <v>22.468358552662711</v>
+        <v>0.27865457735025556</v>
       </c>
       <c r="G70">
         <f>SQRT(2)*G66*(1+2.72^(0.01/0.14))</f>
-        <v>0.43998091160566655</v>
+        <v>0.27865457735025556</v>
       </c>
       <c r="H70">
         <f>SUM(C70:G70)</f>
-        <v>110.94034858965622</v>
+        <v>52.113528631774543</v>
       </c>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72">
-        <v>10.68</v>
+        <v>13.11</v>
       </c>
       <c r="D72">
-        <v>17.39</v>
+        <v>1.65</v>
       </c>
       <c r="E72">
-        <v>2.4700000000000002</v>
+        <v>1.65</v>
       </c>
       <c r="F72">
-        <v>10.27</v>
+        <f>F66</f>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G72">
-        <v>0.2</v>
+        <f>G66</f>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74">
-        <f>SQRT(2)*C72*2.72^(-0.013/0.05)</f>
-        <v>11.643896474221995</v>
+        <f>SQRT(2)*C72*(1+(2.72^(-0.01/0.05)))</f>
+        <v>33.717967961630528</v>
       </c>
       <c r="D74">
-        <f t="shared" ref="D74:E74" si="15">SQRT(2)*D72*2.72^(-0.013/0.05)</f>
-        <v>18.959490607370832</v>
+        <f>SQRT(2)*D72*(1+(2.72^(-0.01/0.05)))</f>
+        <v>4.243680178237252</v>
       </c>
       <c r="E74">
-        <f t="shared" si="15"/>
-        <v>2.6929236227835514</v>
+        <f>SQRT(2)*E72*(1+(2.72^(-0.01/0.05)))</f>
+        <v>4.243680178237252</v>
       </c>
       <c r="F74">
-        <f>SQRT(2)*F72*2.72^(-0.013/0.246)</f>
-        <v>13.775913845592298</v>
+        <f>SQRT(2)*F72*(1+(2.72^(-0.01/0.014)))</f>
+        <v>0.20009067341852704</v>
       </c>
       <c r="G74">
-        <f>SQRT(2)*G72*2.72^(-0.013/0.246)</f>
-        <v>0.26827485580510807</v>
+        <f>SQRT(2)*G72*(1+(2.72^(-0.01/0.014)))</f>
+        <v>0.20009067341852704</v>
       </c>
       <c r="H74">
         <f>SUM(C74:G74)</f>
-        <v>47.340499405773791</v>
+        <v>42.60550966494209</v>
       </c>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76">
         <f>SQRT(2)*C72*(1+2.72^(0.01/0.05))</f>
-        <v>33.553956368991514</v>
+        <v>41.188423969801377</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76" si="16">SQRT(2)*D72*(1+2.72^(0.01/0.05))</f>
-        <v>54.635140567112586</v>
+        <f t="shared" ref="D76" si="15">SQRT(2)*D72*(1+2.72^(0.01/0.05))</f>
+        <v>5.1838977536363284</v>
       </c>
       <c r="E76">
         <f>SQRT(2)*E72*(1+2.72^(0.01/0.05))</f>
-        <v>7.7601378493828683</v>
+        <v>5.1838977536363284</v>
       </c>
       <c r="F76">
         <f>SQRT(2)*F72*(1+2.72^(0.01/0.246))</f>
-        <v>29.650904916766144</v>
+        <v>0.27427808832451644</v>
       </c>
       <c r="G76">
         <f>SQRT(2)*G72*(1+2.72^(0.01/0.246))</f>
-        <v>0.57742755436740312</v>
+        <v>0.27427808832451644</v>
       </c>
       <c r="H76">
         <f>SUM(C76:G76)</f>
-        <v>126.17756725662053</v>
+        <v>52.104775653723067</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>3.44</v>
+      </c>
+      <c r="D78">
+        <v>12.13</v>
+      </c>
+      <c r="E78">
+        <v>4.04</v>
+      </c>
+      <c r="F78">
+        <v>3.46</v>
+      </c>
+      <c r="G78">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f>SQRT(2)*C78*2.72^(-0.09/0.05)</f>
+        <v>0.80324755659530711</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:G80" si="16">SQRT(2)*D78*2.72^(-0.09/0.05)</f>
+        <v>2.8323816457851962</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="16"/>
+        <v>0.94334887460611649</v>
+      </c>
+      <c r="F80">
+        <f>SQRT(2)*F78*2.72^(-0.09/0.14)</f>
+        <v>2.5717300090782302</v>
+      </c>
+      <c r="G80">
+        <f>SQRT(2)*G78*2.72^(-0.09/0.14)</f>
+        <v>1.2709995131571601</v>
+      </c>
+      <c r="H80">
+        <f>SUM(C80:G80)</f>
+        <v>8.4217075992220103</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f>SQRT(2)*C78*(1+2.72^(0.01/0.05))</f>
+        <v>10.807641377278165</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ref="D82:E82" si="17">SQRT(2)*D78*(1+2.72^(0.01/0.05))</f>
+        <v>38.109502879762836</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="17"/>
+        <v>12.692695105873193</v>
+      </c>
+      <c r="F82">
+        <f>SQRT(2)*F78*(1+2.72^(0.01/0.14))</f>
+        <v>10.148893027704045</v>
+      </c>
+      <c r="G82">
+        <f>SQRT(2)*G78*(1+2.72^(0.01/0.14))</f>
+        <v>5.0157823923045992</v>
+      </c>
+      <c r="H82">
+        <f>SUM(C82:G82)</f>
+        <v>76.774514782922836</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>3.44</v>
+      </c>
+      <c r="D84">
+        <v>12.13</v>
+      </c>
+      <c r="E84">
+        <v>4.04</v>
+      </c>
+      <c r="F84">
+        <v>3.46</v>
+      </c>
+      <c r="G84">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <f>SQRT(2)*C84*2.72^(0.01/0.05)</f>
+        <v>5.9427467227147188</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ref="D86:E86" si="18">SQRT(2)*D84*2.72^(0.01/0.05)</f>
+        <v>20.955092368177191</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="18"/>
+        <v>6.9792723138858905</v>
+      </c>
+      <c r="F86">
+        <f>SQRT(2)*F84*2.72^(0.01/0.14)</f>
+        <v>5.2557141018931333</v>
+      </c>
+      <c r="G86">
+        <f>SQRT(2)*G84*2.72^(0.01/0.14)</f>
+        <v>2.597477200646606</v>
+      </c>
+      <c r="H86">
+        <f>SUM(C86:G86)</f>
+        <v>41.730302707317541</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f>SQRT(2)*C84*(1+2.72^(0.01/0.05))</f>
+        <v>10.807641377278165</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ref="D88:E88" si="19">SQRT(2)*D84*(1+2.72^(0.01/0.05))</f>
+        <v>38.109502879762836</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="19"/>
+        <v>12.692695105873193</v>
+      </c>
+      <c r="F88">
+        <f>SQRT(2)*F84*(1+2.72^(0.01/0.14))</f>
+        <v>10.148893027704045</v>
+      </c>
+      <c r="G88">
+        <f>SQRT(2)*G84*(1+2.72^(0.01/0.14))</f>
+        <v>5.0157823923045992</v>
+      </c>
+      <c r="H88">
+        <f>SUM(C88:G88)</f>
+        <v>76.774514782922836</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:U9"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T15"/>
+    <mergeCell ref="U11:U15"/>
+    <mergeCell ref="S14:S15"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T15"/>
-    <mergeCell ref="U11:U15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="M5:M10"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
+++ b/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
@@ -409,6 +409,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -426,12 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U88"/>
+  <dimension ref="A2:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,14 +1268,14 @@
       <c r="N3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
       <c r="U3" s="7" t="s">
         <v>57</v>
       </c>
@@ -1322,15 +1322,15 @@
         <f>(H4^2)*$J$3</f>
         <v>1862.2547878524683</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="8"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1437,7 +1437,7 @@
         <f>(H6^2)*$J$3</f>
         <v>7575.9673647973123</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="5" t="s">
         <v>60</v>
       </c>
@@ -1453,9 +1453,9 @@
       <c r="R6" s="5">
         <v>3.16</v>
       </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1495,7 +1495,7 @@
         <f t="shared" si="4"/>
         <v>11057.127645581084</v>
       </c>
-      <c r="M7" s="14"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="5" t="s">
         <v>61</v>
       </c>
@@ -1511,9 +1511,9 @@
       <c r="R7" s="5">
         <v>3.16</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1553,7 +1553,7 @@
         <f t="shared" si="4"/>
         <v>4719.0488272382081</v>
       </c>
-      <c r="M8" s="14"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="5" t="s">
         <v>62</v>
       </c>
@@ -1572,8 +1572,8 @@
       <c r="S8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1613,7 +1613,7 @@
         <f>(H9^2)*$J$3</f>
         <v>29828.185655256664</v>
       </c>
-      <c r="M9" s="14"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="5" t="s">
         <v>63</v>
       </c>
@@ -1629,9 +1629,9 @@
       <c r="R9" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1671,7 +1671,7 @@
         <f>(H10^2)*$J$4</f>
         <v>9787.0709056441628</v>
       </c>
-      <c r="M10" s="15"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="6" t="s">
         <v>64</v>
       </c>
@@ -1799,7 +1799,7 @@
         <f t="shared" si="4"/>
         <v>11057.127645581084</v>
       </c>
-      <c r="M12" s="14"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="5" t="s">
         <v>60</v>
       </c>
@@ -1815,9 +1815,9 @@
       <c r="R12" s="5">
         <v>3.16</v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1857,7 +1857,7 @@
         <f t="shared" si="4"/>
         <v>7575.9673647973123</v>
       </c>
-      <c r="M13" s="14"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="5" t="s">
         <v>61</v>
       </c>
@@ -1873,9 +1873,9 @@
       <c r="R13" s="5">
         <v>3.16</v>
       </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1915,7 +1915,7 @@
         <f t="shared" si="4"/>
         <v>4719.0488272382081</v>
       </c>
-      <c r="M14" s="14"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="5" t="s">
         <v>62</v>
       </c>
@@ -1934,8 +1934,8 @@
       <c r="S14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1975,7 +1975,7 @@
         <f t="shared" si="4"/>
         <v>2314.7367225193411</v>
       </c>
-      <c r="M15" s="14"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="5" t="s">
         <v>63</v>
       </c>
@@ -1991,16 +1991,16 @@
       <c r="R15" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>SUM(A3:A15)</f>
         <v>768</v>
       </c>
-      <c r="M16" s="15"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="6" t="s">
         <v>64</v>
       </c>
@@ -2355,41 +2355,41 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C59">
-        <v>3.56</v>
+        <v>4.76</v>
       </c>
       <c r="D59">
-        <v>5.78</v>
+        <v>15.38</v>
       </c>
       <c r="E59">
-        <v>3.66</v>
+        <v>0.73</v>
       </c>
       <c r="F59">
-        <v>0.56999999999999995</v>
+        <v>8.41</v>
       </c>
       <c r="G59">
-        <v>4.9000000000000002E-2</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C61">
         <f>SQRT(2)*C59*2.72^(-0.09/0.05)</f>
-        <v>0.83126782019746892</v>
+        <v>1.1114704562190876</v>
       </c>
       <c r="D61">
         <f t="shared" ref="D61:E61" si="11">SQRT(2)*D59*2.72^(-0.09/0.05)</f>
-        <v>1.3496426968374635</v>
+        <v>3.5912637850104141</v>
       </c>
       <c r="E61">
         <f t="shared" si="11"/>
-        <v>0.85461803986593721</v>
+        <v>0.17045660357981807</v>
       </c>
       <c r="F61">
         <f>SQRT(2)*F59*2.72^(-0.09/0.14)</f>
-        <v>0.42366650438571996</v>
+        <v>6.2509391261121143</v>
       </c>
       <c r="G61">
         <f>SQRT(2)*G59*2.72^(-0.09/0.14)</f>
-        <v>3.6420453885789961E-2</v>
+        <v>0.23041511642030385</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -2398,27 +2398,27 @@
       </c>
       <c r="C63">
         <f>SQRT(2)*C59*(1+2.72^(0.01/0.05))</f>
-        <v>11.18465212299717</v>
+        <v>14.954759580187227</v>
       </c>
       <c r="D63">
         <f t="shared" ref="D63:E63" si="12">SQRT(2)*D59*(1+2.72^(0.01/0.05))</f>
-        <v>18.159350918798776</v>
+        <v>48.320210576319241</v>
       </c>
       <c r="E63">
         <f t="shared" si="12"/>
-        <v>11.498827744429676</v>
+        <v>2.2934820364572848</v>
       </c>
       <c r="F63">
-        <f>SQRT(2)*F59*(1+2.72^(0.01/0.14))</f>
-        <v>1.6719274641015331</v>
+        <f>SQRT(2)*F59*(1+2.72^(0.01/0.246))</f>
+        <v>24.280828661149297</v>
       </c>
       <c r="G63">
-        <f>SQRT(2)*G59*(1+2.72^(0.01/0.14))</f>
-        <v>0.14372709779118442</v>
+        <f>SQRT(2)*G59*(1+2.72^(0.01/0.246))</f>
+        <v>0.89501270926947463</v>
       </c>
       <c r="H63">
         <f>SUM(C63:G63)</f>
-        <v>42.65848534811834</v>
+        <v>90.744293563382541</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
@@ -2535,188 +2535,24 @@
         <v>42.60550966494209</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C76">
-        <f>SQRT(2)*C72*(1+2.72^(0.01/0.05))</f>
-        <v>41.188423969801377</v>
-      </c>
-      <c r="D76">
-        <f t="shared" ref="D76" si="15">SQRT(2)*D72*(1+2.72^(0.01/0.05))</f>
-        <v>5.1838977536363284</v>
-      </c>
-      <c r="E76">
-        <f>SQRT(2)*E72*(1+2.72^(0.01/0.05))</f>
-        <v>5.1838977536363284</v>
-      </c>
-      <c r="F76">
-        <f>SQRT(2)*F72*(1+2.72^(0.01/0.246))</f>
-        <v>0.27427808832451644</v>
-      </c>
-      <c r="G76">
-        <f>SQRT(2)*G72*(1+2.72^(0.01/0.246))</f>
-        <v>0.27427808832451644</v>
-      </c>
-      <c r="H76">
-        <f>SUM(C76:G76)</f>
-        <v>52.104775653723067</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C78">
-        <v>3.44</v>
-      </c>
-      <c r="D78">
-        <v>12.13</v>
-      </c>
-      <c r="E78">
-        <v>4.04</v>
-      </c>
-      <c r="F78">
-        <v>3.46</v>
-      </c>
-      <c r="G78">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C80">
-        <f>SQRT(2)*C78*2.72^(-0.09/0.05)</f>
-        <v>0.80324755659530711</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ref="D80:G80" si="16">SQRT(2)*D78*2.72^(-0.09/0.05)</f>
-        <v>2.8323816457851962</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="16"/>
-        <v>0.94334887460611649</v>
-      </c>
-      <c r="F80">
-        <f>SQRT(2)*F78*2.72^(-0.09/0.14)</f>
-        <v>2.5717300090782302</v>
-      </c>
-      <c r="G80">
-        <f>SQRT(2)*G78*2.72^(-0.09/0.14)</f>
-        <v>1.2709995131571601</v>
-      </c>
-      <c r="H80">
-        <f>SUM(C80:G80)</f>
-        <v>8.4217075992220103</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C82">
-        <f>SQRT(2)*C78*(1+2.72^(0.01/0.05))</f>
-        <v>10.807641377278165</v>
-      </c>
-      <c r="D82">
-        <f t="shared" ref="D82:E82" si="17">SQRT(2)*D78*(1+2.72^(0.01/0.05))</f>
-        <v>38.109502879762836</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="17"/>
-        <v>12.692695105873193</v>
-      </c>
-      <c r="F82">
-        <f>SQRT(2)*F78*(1+2.72^(0.01/0.14))</f>
-        <v>10.148893027704045</v>
-      </c>
-      <c r="G82">
-        <f>SQRT(2)*G78*(1+2.72^(0.01/0.14))</f>
-        <v>5.0157823923045992</v>
-      </c>
-      <c r="H82">
-        <f>SUM(C82:G82)</f>
-        <v>76.774514782922836</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C84">
-        <v>3.44</v>
-      </c>
-      <c r="D84">
-        <v>12.13</v>
-      </c>
-      <c r="E84">
-        <v>4.04</v>
-      </c>
-      <c r="F84">
-        <v>3.46</v>
-      </c>
-      <c r="G84">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C86">
-        <f>SQRT(2)*C84*2.72^(0.01/0.05)</f>
-        <v>5.9427467227147188</v>
-      </c>
-      <c r="D86">
-        <f t="shared" ref="D86:E86" si="18">SQRT(2)*D84*2.72^(0.01/0.05)</f>
-        <v>20.955092368177191</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="18"/>
-        <v>6.9792723138858905</v>
-      </c>
-      <c r="F86">
-        <f>SQRT(2)*F84*2.72^(0.01/0.14)</f>
-        <v>5.2557141018931333</v>
-      </c>
-      <c r="G86">
-        <f>SQRT(2)*G84*2.72^(0.01/0.14)</f>
-        <v>2.597477200646606</v>
-      </c>
-      <c r="H86">
-        <f>SUM(C86:G86)</f>
-        <v>41.730302707317541</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C88">
-        <f>SQRT(2)*C84*(1+2.72^(0.01/0.05))</f>
-        <v>10.807641377278165</v>
-      </c>
-      <c r="D88">
-        <f t="shared" ref="D88:E88" si="19">SQRT(2)*D84*(1+2.72^(0.01/0.05))</f>
-        <v>38.109502879762836</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="19"/>
-        <v>12.692695105873193</v>
-      </c>
-      <c r="F88">
-        <f>SQRT(2)*F84*(1+2.72^(0.01/0.14))</f>
-        <v>10.148893027704045</v>
-      </c>
-      <c r="G88">
-        <f>SQRT(2)*G84*(1+2.72^(0.01/0.14))</f>
-        <v>5.0157823923045992</v>
-      </c>
-      <c r="H88">
-        <f>SUM(C88:G88)</f>
-        <v>76.774514782922836</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M5:M10"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:U9"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T15"/>
-    <mergeCell ref="U11:U15"/>
-    <mergeCell ref="S14:S15"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T15"/>
+    <mergeCell ref="U11:U15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
+++ b/електрична частна станцій та підстанцій/електрична частна станцій та підстанцій.xlsx
@@ -1177,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U74"/>
+  <dimension ref="A2:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,29 +2322,29 @@
         <v>15.038105866528864</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>32/(SQRT(3)*220)</f>
         <v>8.3978220973036477E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>G48/0.084</f>
         <v>0.60608031919507332</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>70</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>0.16424317339026859</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>4.76</v>
       </c>
@@ -2369,8 +2369,12 @@
       <c r="G59">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <f>1/((1/9.28)+((1/9.28)+((1/0.45)+(1/0.45))))</f>
+        <v>0.21459403905447075</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C61">
         <f>SQRT(2)*C59*2.72^(-0.09/0.05)</f>
         <v>1.1114704562190876</v>
@@ -2392,7 +2396,7 @@
         <v>0.23041511642030385</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>71</v>
       </c>
@@ -2423,116 +2427,71 @@
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66">
-        <v>13.11</v>
+        <v>8.9</v>
       </c>
       <c r="D66">
-        <v>1.65</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="E66">
-        <v>1.65</v>
+        <v>2.42</v>
       </c>
       <c r="F66">
-        <v>9.5000000000000001E-2</v>
+        <v>8.41</v>
       </c>
       <c r="G66">
-        <v>9.5000000000000001E-2</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68">
-        <f>SQRT(2)*C66*2.72^(-0.07/0.05)</f>
-        <v>4.567948762268391</v>
+        <f>SQRT(2)*C66*2.72^(-0.013/0.05)</f>
+        <v>9.7032470618516626</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:F68" si="13">SQRT(2)*D66*2.72^(-0.07/0.05)</f>
-        <v>0.57491345978206299</v>
+        <f t="shared" ref="D68:E68" si="13">SQRT(2)*D66*2.72^(-0.013/0.05)</f>
+        <v>146.85700890240659</v>
       </c>
       <c r="E68">
         <f t="shared" si="13"/>
-        <v>0.57491345978206299</v>
+        <v>2.6384109988405644</v>
       </c>
       <c r="F68">
-        <f t="shared" si="13"/>
-        <v>3.310107798745212E-2</v>
+        <f>SQRT(2)*F66*2.72^(-0.13/0.05)</f>
+        <v>0.88192538458007952</v>
       </c>
       <c r="G68">
-        <f>SQRT(2)*G66*2.72^(-0.07/0.05)</f>
-        <v>3.310107798745212E-2</v>
+        <f>SQRT(2)*G66*2.72^(-0.13/0.05)</f>
+        <v>0.79593503792661158</v>
       </c>
       <c r="H68">
         <f>SUM(C68:G68)</f>
-        <v>5.7839778378074209</v>
+        <v>160.87652738560553</v>
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70">
         <f>SQRT(2)*C66*(1+2.72^(0.01/0.05))</f>
-        <v>41.188423969801377</v>
+        <v>27.961630307492928</v>
       </c>
       <c r="D70">
         <f t="shared" ref="D70:E70" si="14">SQRT(2)*D66*(1+2.72^(0.01/0.05))</f>
-        <v>5.1838977536363284</v>
+        <v>423.19456206958387</v>
       </c>
       <c r="E70">
         <f t="shared" si="14"/>
-        <v>5.1838977536363284</v>
+        <v>7.6030500386666153</v>
       </c>
       <c r="F70">
-        <f>SQRT(2)*F66*(1+2.72^(0.01/0.14))</f>
-        <v>0.27865457735025556</v>
+        <f>SQRT(2)*F66*(1+2.72^(0.01/0.246))</f>
+        <v>24.280828661149297</v>
       </c>
       <c r="G70">
-        <f>SQRT(2)*G66*(1+2.72^(0.01/0.14))</f>
-        <v>0.27865457735025556</v>
+        <f>SQRT(2)*G66*(1+2.72^(0.01/0.246))</f>
+        <v>21.913375688242944</v>
       </c>
       <c r="H70">
         <f>SUM(C70:G70)</f>
-        <v>52.113528631774543</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C72">
-        <v>13.11</v>
-      </c>
-      <c r="D72">
-        <v>1.65</v>
-      </c>
-      <c r="E72">
-        <v>1.65</v>
-      </c>
-      <c r="F72">
-        <f>F66</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G72">
-        <f>G66</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C74">
-        <f>SQRT(2)*C72*(1+(2.72^(-0.01/0.05)))</f>
-        <v>33.717967961630528</v>
-      </c>
-      <c r="D74">
-        <f>SQRT(2)*D72*(1+(2.72^(-0.01/0.05)))</f>
-        <v>4.243680178237252</v>
-      </c>
-      <c r="E74">
-        <f>SQRT(2)*E72*(1+(2.72^(-0.01/0.05)))</f>
-        <v>4.243680178237252</v>
-      </c>
-      <c r="F74">
-        <f>SQRT(2)*F72*(1+(2.72^(-0.01/0.014)))</f>
-        <v>0.20009067341852704</v>
-      </c>
-      <c r="G74">
-        <f>SQRT(2)*G72*(1+(2.72^(-0.01/0.014)))</f>
-        <v>0.20009067341852704</v>
-      </c>
-      <c r="H74">
-        <f>SUM(C74:G74)</f>
-        <v>42.60550966494209</v>
+        <v>504.95344676513565</v>
       </c>
     </row>
   </sheetData>
